--- a/biology/Zoologie/Grive_d'Amami/Grive_d'Amami.xlsx
+++ b/biology/Zoologie/Grive_d'Amami/Grive_d'Amami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grive_d%27Amami</t>
+          <t>Grive_d'Amami</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zoothera major
 La Grive d'Amami (Zoothera major) est une espèce de passereaux de la famille des Turdidae endémique du Japon.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grive_d%27Amami</t>
+          <t>Grive_d'Amami</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Zoothera major a été initialement décrite en 1905 par le physicien et ornithologue Minori Ogawa (d) (1876–1908) sous le protonyme de Geocichla major[1], sur la base de nombreux spécimens mâles et femelles[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Zoothera major a été initialement décrite en 1905 par le physicien et ornithologue Minori Ogawa (d) (1876–1908) sous le protonyme de Geocichla major, sur la base de nombreux spécimens mâles et femelles. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grive_d%27Amami</t>
+          <t>Grive_d'Amami</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette grive de grande taille (30 cm), aux motifs très voyants, ressemble à la Grive dama (Zoothera dauma). Elle est brun-olive à chamois pour les parties supérieures et blanchâtre avec des gros motifs en écailles noirs en dessous. Elle a douze plumes à la queue. La Grive dama est plus petite et a quatorze plumes à la queue. Elle a un chant similaire à celui de la Grive de Sibérie (Geokichla sibirica).
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grive_d%27Amami</t>
+          <t>Grive_d'Amami</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est endémique aux îles Amami-Ōshima et Kakeroma-jima dans le Nord de l'archipel Nansei au Japon[2].
-Elle vit dans les forêts sempervirentes des vallées humides entre 100 et 400 m d'altitude[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est endémique aux îles Amami-Ōshima et Kakeroma-jima dans le Nord de l'archipel Nansei au Japon.
+Elle vit dans les forêts sempervirentes des vallées humides entre 100 et 400 m d'altitude.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grive_d%27Amami</t>
+          <t>Grive_d'Amami</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son régime alimentaire comprend des invertébrés et des fruits[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son régime alimentaire comprend des invertébrés et des fruits.
 </t>
         </is>
       </c>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grive_d%27Amami</t>
+          <t>Grive_d'Amami</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,9 +657,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La période de reproduction a lieu entre mai et juin. La femelle pond 3 à 4 œufs[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période de reproduction a lieu entre mai et juin. La femelle pond 3 à 4 œufs.
 </t>
         </is>
       </c>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Grive_d%27Amami</t>
+          <t>Grive_d'Amami</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,9 +690,11 @@
           <t>Population et conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau est en voie de disparition en raison de la déforestation. La population actuelle est estimée à 2 513 individus adultes[2]. 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau est en voie de disparition en raison de la déforestation. La population actuelle est estimée à 2 513 individus adultes. 
 Des zones de forêts ont été protégées par le gouvernement à des fins de conservation de cette espèce et du Geai de Lidth[réf. souhaitée].
 </t>
         </is>
@@ -682,7 +706,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Grive_d%27Amami</t>
+          <t>Grive_d'Amami</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -701,6 +725,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
